--- a/biology/Zoologie/Clerus/Clerus.xlsx
+++ b/biology/Zoologie/Clerus/Clerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clerus est un genre d'insectes de l'ordre des coléoptères, de la famille des Cleridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clerus africanus
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Clerus africanus
 Clerus dealbatus
 Clerus elegans
 Clerus formosanus
@@ -524,9 +538,43 @@
 Clerus mutillarius
 Clerus mutillaroides
 Clerus sinae
-Clerus thanasimoides
-Espèces d'Europe
-Il n'existe, en Europe, qu'une seule espèce du genre Clerus :
+Clerus thanasimoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clerus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clerus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces d'Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe, en Europe, qu'une seule espèce du genre Clerus :
 Clerus mutillarius Fabricius, 1775.
 C'est un petit coléoptère assez trapu au thorax noir, à l'abdomen rouge sous les élytres. Commun dans le centre et le sud de l'Europe sur les troncs et tas de bois, il montre une préférence pour le chêne. Il est prédateur de petits insectes.
 Sur les autres projets Wikimedia :
